--- a/input_data/ship_costs.xlsx
+++ b/input_data/ship_costs.xlsx
@@ -4323,7 +4323,7 @@
   <dimension ref="B3:AK68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="C4" sqref="C4:AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4561,15 +4561,15 @@
       </c>
       <c r="AG4">
         <f>+costs!B33</f>
-        <v>20.052890125950839</v>
+        <v>999</v>
       </c>
       <c r="AH4">
         <f>+costs!C33</f>
-        <v>14.961561541440341</v>
+        <v>999</v>
       </c>
       <c r="AI4">
         <f>+costs!D33</f>
-        <v>2.9531695843160377</v>
+        <v>999</v>
       </c>
       <c r="AJ4">
         <f>+costs!E33</f>
@@ -12623,22 +12623,19 @@
         <v>82</v>
       </c>
       <c r="B33" s="2">
-        <f>+(98200/84800)*B28</f>
-        <v>20.052890125950839</v>
+        <v>999</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" ref="C33:F33" si="7">+(98200/84800)*C28</f>
-        <v>14.961561541440341</v>
+        <v>999</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="7"/>
-        <v>2.9531695843160377</v>
+        <v>999</v>
       </c>
       <c r="E33">
         <v>999</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="C33:F33" si="7">+(98200/84800)*F28</f>
         <v>6.3931326650943392</v>
       </c>
       <c r="G33" t="s">
